--- a/It201819/DEtailed Calculation/pag.xlsx
+++ b/It201819/DEtailed Calculation/pag.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$M$56</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$M$17</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>less Rebate</t>
   </si>
@@ -206,6 +206,9 @@
   </si>
   <si>
     <t>u/s - 80CCD(1B) (4) maximum 50,000/-</t>
+  </si>
+  <si>
+    <t>Health and Education Cess  paid</t>
   </si>
 </sst>
 </file>
@@ -766,8 +769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScale="60" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -895,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="26">
-        <f t="shared" ref="G3:G13" si="2">SUM(B3:F3)</f>
+        <f t="shared" ref="G3:G12" si="2">SUM(B3:F3)</f>
         <v>239086</v>
       </c>
       <c r="H3" s="26"/>
@@ -1348,8 +1351,13 @@
       <c r="K13" s="26">
         <v>200</v>
       </c>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
+      <c r="L13" s="26">
+        <v>185910</v>
+      </c>
+      <c r="M13" s="26">
+        <f t="shared" si="3"/>
+        <v>7436</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
@@ -1423,55 +1431,55 @@
         <v>3</v>
       </c>
       <c r="B17" s="26">
-        <f>SUM(B2:B16)</f>
+        <f t="shared" ref="B17:G17" si="7">SUM(B2:B16)</f>
         <v>2394143</v>
       </c>
       <c r="C17" s="26">
-        <f>SUM(C2:C16)</f>
+        <f t="shared" si="7"/>
         <v>207628</v>
       </c>
       <c r="D17" s="26">
-        <f>SUM(D2:D16)</f>
+        <f t="shared" si="7"/>
         <v>557182</v>
       </c>
       <c r="E17" s="26">
-        <f>SUM(E2:E16)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F17" s="26">
-        <f>SUM(F2:F16)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G17" s="26">
-        <f>SUM(G2:G16)</f>
+        <f t="shared" si="7"/>
         <v>3158953</v>
       </c>
       <c r="H17" s="26">
-        <f>SUM(H2:H15)</f>
+        <f t="shared" ref="H17:M17" si="8">SUM(H2:H15)</f>
         <v>1000</v>
       </c>
       <c r="I17" s="26">
-        <f>SUM(I2:I15)</f>
+        <f t="shared" si="8"/>
         <v>1440</v>
       </c>
       <c r="J17" s="26">
-        <f>SUM(J2:J15)</f>
+        <f t="shared" si="8"/>
         <v>540000</v>
       </c>
       <c r="K17" s="26">
-        <f>SUM(K2:K15)</f>
+        <f t="shared" si="8"/>
         <v>2400</v>
       </c>
       <c r="L17" s="26">
-        <f>SUM(L2:L15)</f>
-        <v>510000</v>
+        <f t="shared" si="8"/>
+        <v>695910</v>
       </c>
       <c r="M17" s="26">
-        <f>SUM(M2:M15)</f>
-        <v>20400</v>
+        <f t="shared" si="8"/>
+        <v>27836</v>
       </c>
       <c r="N17" s="2">
-        <f>G13-SUM(H13:M13)-SUM(Sheet2!B36:B37)</f>
+        <f>G13-SUM(H13:M13)-SUM(Sheet2!B37:B38)</f>
         <v>29127</v>
       </c>
     </row>
@@ -1486,10 +1494,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A28" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1810,31 +1818,42 @@
       </c>
       <c r="B35" s="26">
         <f>Sheet1!L17</f>
-        <v>510000</v>
+        <v>695910</v>
       </c>
       <c r="C35" s="2"/>
     </row>
     <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="B36" s="26">
-        <f>B34-B35</f>
-        <v>185900</v>
+        <f>Sheet1!M17</f>
+        <v>27836</v>
       </c>
       <c r="C36" s="2"/>
     </row>
     <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="26">
+        <f>B34-B35</f>
+        <v>-10</v>
+      </c>
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="26">
-        <f>ROUND(B36*0.04,0)</f>
-        <v>7436</v>
-      </c>
-      <c r="C37" s="2"/>
+      <c r="B38" s="26">
+        <f>ROUND(B37*0.04,0)</f>
+        <v>0</v>
+      </c>
+      <c r="C38" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="94" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>